--- a/biology/Botanique/Sebastiania/Sebastiania.xlsx
+++ b/biology/Botanique/Sebastiania/Sebastiania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sebastiania est un genre de plantes à fleurs de la famille des Euphorbiaceae dont les espèces sont originaires d'Amérique.
 Les plantes portant le nom de « pois sauteurs » sont deux espèces d'Euphorbiacées appartenant au genre Sebastiania (S. pavoniana ou S. palmeri). Elles trouvent leur origine dans les montagnes des États de Sonora, Sinaloa, et Chihuahua, dans une aire d'environ 50 × 100 km, au nord-ouest du Mexique.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On recense une soixantaine d'espèces:
 Sebastiania argutidens Pax &amp; K.Hoffm.
@@ -602,7 +616,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kurt Sprengel, Neue Entd no 2, 1821, p. 118.</t>
         </is>
